--- a/biology/Botanique/Hymenophyllum_erosum/Hymenophyllum_erosum.xlsx
+++ b/biology/Botanique/Hymenophyllum_erosum/Hymenophyllum_erosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum erosum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,10 +523,12 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum erosum appartient au sous-genre Globosa.
-Carl Frederik Albert Christensen fait de cette espèce un synonyme de Hymenophyllum australe Willd.. Il s'agit effectivement d'une espèce proche - elle appartient au même sous-genre -. Cependant, William Jackson Hooker, qui décrit tant Hymenophyllum australe que Hymenophyllum erosum, ne fait pas le rapprochement des deux espèces[1].
+Carl Frederik Albert Christensen fait de cette espèce un synonyme de Hymenophyllum australe Willd.. Il s'agit effectivement d'une espèce proche - elle appartient au même sous-genre -. Cependant, William Jackson Hooker, qui décrit tant Hymenophyllum australe que Hymenophyllum erosum, ne fait pas le rapprochement des deux espèces.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme, sans poils ;
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente à Java (elle n'a jamais été décrite ailleurs, si l'éventuelle synonymie avec Hymenophyllum australe n'est pas retenue).
 Elle est principalement épiphyte d'arbres de forêts pluviales.
